--- a/tournament/matches/Chennai_SouthAfrica_vs_RoyalChallengers_Bangladesh.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_RoyalChallengers_Bangladesh.xlsx
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,14 +627,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,19 +727,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="n">
         <v>8</v>
       </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,14 +827,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,14 +951,14 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1030,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahedi Hasan</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1197,22 +1197,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1221,38 +1221,38 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1261,38 +1261,38 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>19.67</v>
+        <v>16</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1301,38 +1301,38 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>23.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>13.67</v>
+        <v>7</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1341,38 +1341,38 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>16.67</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>15.24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Chennai_SouthAfrica_vs_RoyalChallengers_Bangladesh.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_RoyalChallengers_Bangladesh.xlsx
@@ -159,6 +159,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,7 +475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -527,19 +557,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,19 +581,19 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -580,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -601,10 +631,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,7 +643,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,19 +657,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -651,14 +681,14 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -677,14 +707,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -701,19 +731,19 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,14 +757,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -751,19 +781,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,14 +807,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -801,10 +831,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -813,7 +843,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,19 +857,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,19 +881,19 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,19 +907,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -901,10 +931,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -913,7 +943,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +957,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,19 +981,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -977,19 +1007,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,19 +1031,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,19 +1057,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1051,14 +1081,14 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1114,32 +1144,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J16" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -1197,22 +1227,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1225,74 +1255,74 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Dwaine Pretorius</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>15</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Dwaine Pretorius</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>18</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1305,19 +1335,19 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1326,13 +1356,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1345,56 +1375,57 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Keshav Maharaj</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>34</v>
+      </c>
+      <c r="M25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Keshav Maharaj</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>22</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
       <c r="N25" t="n">
-        <v>20</v>
+        <v>22.67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>